--- a/dataset/clean/lemonade_clean.xlsx
+++ b/dataset/clean/lemonade_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/dataset/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC570E0-B871-A646-956C-3B7E3E8949C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3CEC5-723B-0946-8643-9FF437D6D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -1668,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70140173-A59C-D94E-9AB4-4689497F90FF}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection sqref="A1:G1048576"/>
@@ -1842,22 +1842,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>42557</v>
+        <v>42558</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>0.25</v>
@@ -1865,22 +1865,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G9">
         <v>0.25</v>
@@ -1888,22 +1888,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>42559</v>
+        <v>42560</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G10">
         <v>0.25</v>
@@ -1911,22 +1911,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>42560</v>
+        <v>42561</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G11">
         <v>0.25</v>
@@ -1934,22 +1934,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>42561</v>
+        <v>42562</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G12">
         <v>0.25</v>
@@ -1957,22 +1957,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>0.25</v>
@@ -1980,19 +1980,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>42563</v>
+        <v>42564</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>99</v>
@@ -2003,22 +2003,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G15">
         <v>0.25</v>
@@ -2026,45 +2026,45 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>42565</v>
+        <v>42566</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>42566</v>
+        <v>42567</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G17">
         <v>0.5</v>
@@ -2072,22 +2072,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>42567</v>
+        <v>42568</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G18">
         <v>0.5</v>
@@ -2095,22 +2095,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>42568</v>
+        <v>42569</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E19">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G19">
         <v>0.5</v>
@@ -2118,22 +2118,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>42569</v>
+        <v>42570</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D20">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G20">
         <v>0.5</v>
@@ -2141,22 +2141,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F21">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G21">
         <v>0.5</v>
@@ -2164,22 +2164,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>42571</v>
+        <v>42572</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F22">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G22">
         <v>0.5</v>
@@ -2187,22 +2187,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>42572</v>
+        <v>42573</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G23">
         <v>0.5</v>
@@ -2210,22 +2210,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>42573</v>
+        <v>42574</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G24">
         <v>0.5</v>
@@ -2233,19 +2233,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42574</v>
+        <v>42575</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25">
         <v>82</v>
       </c>
       <c r="E25">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <v>117</v>
@@ -2256,22 +2256,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>42575</v>
+        <v>42576</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E26">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G26">
         <v>0.5</v>
@@ -2279,45 +2279,45 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>42576</v>
+        <v>42577</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D27">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>42577</v>
+        <v>42578</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="D28">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="G28">
         <v>0.35</v>
@@ -2325,22 +2325,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>42578</v>
+        <v>42579</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D29">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G29">
         <v>0.35</v>
@@ -2348,22 +2348,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>42579</v>
+        <v>42580</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G30">
         <v>0.35</v>
@@ -2371,22 +2371,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>42580</v>
+        <v>42581</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D31">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E31">
+        <v>82</v>
+      </c>
+      <c r="F31">
         <v>81</v>
-      </c>
-      <c r="F31">
-        <v>95</v>
       </c>
       <c r="G31">
         <v>0.35</v>
@@ -2394,47 +2394,24 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>42581</v>
+        <v>42582</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>82</v>
       </c>
       <c r="F32">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G32">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>42582</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>76</v>
-      </c>
-      <c r="D33">
-        <v>47</v>
-      </c>
-      <c r="E33">
-        <v>82</v>
-      </c>
-      <c r="F33">
-        <v>68</v>
-      </c>
-      <c r="G33">
         <v>0.35</v>
       </c>
     </row>

--- a/dataset/clean/lemonade_clean.xlsx
+++ b/dataset/clean/lemonade_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/dataset/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3CEC5-723B-0946-8643-9FF437D6D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E239309-E658-2C4B-BBE4-699989714A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1671,7 +1671,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
